--- a/src/main/webapp/excels/Teacher_Template.xlsx
+++ b/src/main/webapp/excels/Teacher_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10237\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10237\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AFD1C7-C249-4BD6-BAAB-B7222441A882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9C798-5B9E-4328-8C54-5871A85EFB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3420" windowWidth="19905" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,29 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>深色表头部分不能做修改，将学生信息添加到表头下方.所有内容必须都是以文本形式存储</t>
+    <r>
+      <t>深色表头部分不能做修改，将学生信息添加到表头下方.所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容必须都是以文本形式存储（表格左上角显示绿色，在内容最前面加上英文单引号）</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +159,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +444,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/webapp/excels/Teacher_Template.xlsx
+++ b/src/main/webapp/excels/Teacher_Template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10237\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEA_Projects\StudyPro\out\artifacts\StudyPro\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9C798-5B9E-4328-8C54-5871A85EFB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EFD0F-4C43-42C9-AB45-01AD0BE4143E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="教师信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,29 +55,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>深色表头部分不能做修改，将学生信息添加到表头下方.所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内容必须都是以文本形式存储（表格左上角显示绿色，在内容最前面加上英文单引号）</t>
-    </r>
+    <t>张三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201440410235</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201440410235</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3455221530@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>421121199609087895x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15928759411</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +132,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -147,10 +164,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,11 +177,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,6 +211,340 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C619CF2A-EB5E-4FA0-9AD4-5AF5BD1BFB32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="295275"/>
+          <a:ext cx="5229225" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>注：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、深色表头部分不能做修改，将教师信息添加到表头下方</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、所有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>数字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>内容必须都是以文本形式存储（表格左上角显示绿色，在内容最前面加上英文单引号）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>、尽量不要有空行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、身份证号码和邮箱允许不填，其他信息必填</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、若出现“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>xx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>电话已经被注册”的错误，请</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修改电话或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将该</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>教师</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>信息删除后重新导入</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,22 +810,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,19 +838,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -489,24 +860,50 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:P2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{60EFAC0D-8B45-4C7B-B06C-73726D525CC4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>